--- a/similarities/split_global/harmonic_similarity_timestamps_309.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_309.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>isophonics_46</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['D', 'G', 'D', 'A:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min'], ['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#', 'A:min/E']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:22.500000', '0:01:30.740000'), ('0:00:55.680000', '0:01:02.280000')]</t>
+          <t>('0:00:51.584671', '0:00:58.620317')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:07.960000', '0:00:13.120000'), ('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:01:20.420000', '0:01:25.320000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=82.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=51.584671</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_196</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab:min', 'D:dim7'], ['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:min', 'C#:dim7'], ['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:06.330000', '0:00:09.900000'), ('0:00:15.880000', '0:00:17.370000')]</t>
+          <t>('0:01:22.070000', '0:01:30.900000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:12.140000', '0:00:15.920000'), ('0:00:17.160000', '0:00:19.520000')]</t>
+          <t>('0:00:12.860000', '0:00:26.220000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=6.33', 'https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=15.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=82.07</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=12.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=17.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=12.86</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_290</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:11.160000', '0:00:16.300000')]</t>
+          <t>('0:00:41.080000', '0:00:43.260000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:20.220000', '0:01:27.220000')]</t>
+          <t>('0:00:08.482392', '0:00:11.666439')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=80.22']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=8.482392</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>jaah_15</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min'], ['A:min', 'E:7/B', 'A:min/C']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['D:min7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:10.760000', '0:00:16.080000'), ('0:00:00.340000', '0:00:02.340000')]</t>
+          <t>('0:01:07.560000', '0:01:14.100000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:15.060000', '0:00:23.160000'), ('0:00:26.960000', '0:00:33.500000')]</t>
+          <t>('0:00:11.260000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=67.56</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=15.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=26.96']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=11.26</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>['E:7/G#', 'A:7/G', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:12.680000', '0:00:20.200000')]</t>
+          <t>('0:00:54.820000', '0:01:01.800000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:18.820000', '0:00:46.240000')]</t>
+          <t>('0:00:58.670000', '0:01:04.130000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=12.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=54.82</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=18.82']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=58.67</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>jaah_71</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C:maj/E', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min', 'A#:maj'], ['D#:min', 'A#:maj', 'D#:min'], ['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:37.120000', '0:00:40.060000'), ('0:00:10.260000', '0:00:15.940000'), ('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:38.900000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:12.960000', '0:00:17.820000'), ('0:00:00.360000', '0:00:05.060000'), ('0:01:58.400000', '0:02:01.720000')]</t>
+          <t>('0:01:16.630000', '0:01:27.460000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=37.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=38.9</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=12.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=0.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-71#t=76.63</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['D', 'E', 'A']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['C:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:13.180000', '0:00:19.520000'), ('0:00:00.300000', '0:00:02.820000')]</t>
+          <t>('0:00:05.130361', '0:00:10.478662')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:13.720000', '0:00:20.760000'), ('0:00:24.180000', '0:00:30.020000')]</t>
+          <t>('0:00:12.446000', '0:00:16.277000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=5.130361</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=13.72', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=24.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=12.446</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D', 'A', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['E/5', 'B', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:00:06.536000', '0:00:14.292000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:00:30.035034', '0:00:51.200022')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=30.035034</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_60</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'A:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['Db', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:58.990317', '0:01:03.680748')]</t>
+          <t>('0:01:09.780000', '0:01:14.920000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:20.220000', '0:00:25.620000')]</t>
+          <t>('0:00:59.730000', '0:01:03.930000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-60#t=58.990317']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=69.78</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=20.22']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=59.73</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>jaah_6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G', 'D']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:02:22.379117', '0:02:29.240614')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:34.866000', '0:01:03.543000')]</t>
+          <t>('0:00:14.300000', '0:00:15.210000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=142.379117']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=34.866']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['A:min', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>['C:min', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:02:03.030000', '0:02:09.120000')]</t>
+          <t>('0:00:39.480000', '0:00:51.460000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+          <t>('0:00:22.080000', '0:00:29.360000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=39.48</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=22.08</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:25.220000', '0:00:27.170000')]</t>
+          <t>('0:03:50.780000', '0:04:06.860000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:00.480000', '0:00:08.480000')]</t>
+          <t>('0:00:20.080000', '0:00:23.800000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=230.78</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=20.08</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['F#:7/A#', 'B:7/A', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:15.300000', '0:00:17.780000')]</t>
+          <t>('0:00:51.960000', '0:00:58.620000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:04:03.440000', '0:04:09.260000')]</t>
+          <t>('0:00:37.633000', '0:00:41.753000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=51.96</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=37.633</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
+          <t>['A#:7', 'D#:maj', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['F:7', 'Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:08.635573')]</t>
+          <t>('0:01:05.780000', '0:01:19.440000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:08.720000', '0:00:14.060000')]</t>
+          <t>('0:00:20.050000', '0:00:26.800000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.78</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=8.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=20.05</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_44</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Ab:maj', 'C:min/5', 'F:min']]</t>
+          <t>['G:7', 'C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C', 'E:min', 'A:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:02:03.261000', '0:02:06.605000')]</t>
+          <t>('0:00:18.870000', '0:00:25.690000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00.459543', '0:00:04.197573')]</t>
+          <t>('0:00:11.380000', '0:00:24.380000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=123.261']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=18.87</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-44#t=0.459543']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=11.38</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
